--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.59</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.907</v>
+        <v>14.901</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.712</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.325</v>
+        <v>11.61</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.825</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.447</v>
+        <v>4.537</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.526302283349859</v>
+        <v>12.3834713944546</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.64433866106402</v>
+        <v>10.56261917657194</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.15932103907011</v>
+        <v>22.50380309273687</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.1367950031991043</v>
+        <v>3.33193892619817</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.62402325766299</v>
+        <v>17.8231074458336</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.7909948328293</v>
+        <v>21.18895977888921</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.657483543494127</v>
+        <v>6.496788999491301</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.59820868735333</v>
+        <v>30.99206764209815</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.14924283838656</v>
+        <v>32.76502801547869</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.57578284728894</v>
+        <v>12.01422023923814</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.19691455388055</v>
+        <v>16.37882611302965</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.18023415333454</v>
+        <v>20.08059872221307</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.697879705152838</v>
+        <v>22.35463421056656</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.59348491054381</v>
+        <v>15.91600783930119</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.84993098379828</v>
+        <v>31.73125067683949</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.945701536677015</v>
+        <v>14.10365934144836</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.66508131017688</v>
+        <v>23.53291210981069</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.51116958033606</v>
+        <v>35.04111113619317</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.173819587804459</v>
+        <v>6.177970205947851</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.12134061750962</v>
+        <v>14.68839564950115</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.66107368314405</v>
+        <v>16.77422059584802</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.5911128651045381</v>
+        <v>0.7790733467994144</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.52445340415792</v>
+        <v>20.0174803411746</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.65314009711217</v>
+        <v>19.63560526125888</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.07259550361314</v>
+        <v>23.66625879246991</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.67095804158049</v>
+        <v>25.25663364549538</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.324094227615387</v>
+        <v>1.516661104762182</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.04031101349802</v>
+        <v>28.99118241137944</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.71744912443837</v>
+        <v>28.7960488931322</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.6197902098044</v>
+        <v>4.994328784224887</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42.24590042981878</v>
+        <v>38.74345332337654</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.27044139163869</v>
+        <v>37.00626715430025</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.60849296936999</v>
+        <v>38.56864148328289</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.73760798669303</v>
+        <v>42.50867813622719</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.8284647981164</v>
+        <v>45.13105184501031</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.89083214538831</v>
+        <v>28.88655678682795</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.64778195696157</v>
+        <v>39.46333967513729</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.64052402702472</v>
+        <v>44.87119785408934</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.035756501213</v>
+        <v>18.87542750103815</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.3392329332338</v>
+        <v>34.37768382209053</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.89857573838844</v>
+        <v>40.90511930150709</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.35703053390576</v>
+        <v>8.023850124485772</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.73717536021753</v>
+        <v>34.40863632860305</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.59649106047681</v>
+        <v>42.71362271823081</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.09800029403284</v>
+        <v>53.06012991456949</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.21105777771214</v>
+        <v>5.716810770908246</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.35517631425833</v>
+        <v>17.93479282533722</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.15417604344739</v>
+        <v>22.55039192644495</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.063886967802153</v>
+        <v>1.567158554204873</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.4727209082742</v>
+        <v>30.35545016862146</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.44806234723037</v>
+        <v>30.77241855785946</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.416693208868402</v>
+        <v>7.265916741044911</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.62686363319004</v>
+        <v>42.82439141844835</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.20271383275768</v>
+        <v>44.78886612330008</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.2930139567716</v>
+        <v>44.15405134913158</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.19912159198286</v>
+        <v>46.58054518380378</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.73261594228757</v>
+        <v>52.71769050202488</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.39172672791872</v>
+        <v>17.24338108041471</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.51220173241265</v>
+        <v>31.49122872924602</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.79998386299226</v>
+        <v>37.72310589064458</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.39162489566435</v>
+        <v>11.98082917086395</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.35572858903937</v>
+        <v>32.14083862454044</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.33076542905402</v>
+        <v>39.82751437417782</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.76962492307777</v>
+        <v>5.671661291476969</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.73853358857943</v>
+        <v>26.59576193137732</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>45.31537720014258</v>
+        <v>42.96868791313879</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.1067118579054</v>
+        <v>4.732105997202275</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>46.07354138664753</v>
+        <v>45.58763676441563</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.793789742702474</v>
+        <v>3.64688855391735</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.62985993537584</v>
+        <v>10.92908629737326</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.6342623278307</v>
+        <v>22.02327124356162</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-2.609572107182615</v>
+        <v>1.916891716049026</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.96092801161508</v>
+        <v>27.37264065947131</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.84780414380192</v>
+        <v>34.70525712556302</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3345176144583526</v>
+        <v>2.475061977127709</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.99215127519945</v>
+        <v>39.70645768679464</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.33258623461825</v>
+        <v>44.22364974022904</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.54767052509447</v>
+        <v>36.61532279268179</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.82840788296284</v>
+        <v>40.41076825177832</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.10017306119859</v>
+        <v>46.03876611712732</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.926453414395052</v>
+        <v>15.26421254516685</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.15156150675985</v>
+        <v>25.47746924077983</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.82604129494393</v>
+        <v>41.01321440280373</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.505005355733735</v>
+        <v>9.356473699213403</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.14808118283091</v>
+        <v>26.3949484225447</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.98142245824943</v>
+        <v>39.1832982621706</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2.379704687166164</v>
+        <v>6.644932839748741</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21.26065495304008</v>
+        <v>25.93859479281318</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.24989886939413</v>
+        <v>43.28663041997847</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-0.05113827310742636</v>
+        <v>2.690616463125949</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.12503820514101</v>
+        <v>38.81587031528744</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.62505912450008</v>
+        <v>28.07230594062046</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.23799222138309</v>
+        <v>22.33846035596115</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.9274844990676</v>
+        <v>41.04777033052066</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.26756204782363</v>
+        <v>46.3635805650828</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.437692604558974</v>
+        <v>6.24346231620309</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.87628162433585</v>
+        <v>18.01785204017199</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.71613659588701</v>
+        <v>26.80710673969712</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>8.662136791105809</v>
+        <v>11.02391028502617</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.65044743462599</v>
+        <v>20.38866543729035</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.04588968459066</v>
+        <v>32.0127259966484</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1.016518224488301</v>
+        <v>2.591417083100776</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.49540673055787</v>
+        <v>10.37821683828995</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.99992662963963</v>
+        <v>17.47762034344682</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-2.099922804892131</v>
+        <v>-0.2713996229391924</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>34.42808406222186</v>
+        <v>19.97638874798238</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>50.70079932352846</v>
+        <v>37.58801413255723</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.59123566328308</v>
+        <v>22.2027359522436</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>53.46454196743549</v>
+        <v>46.04478917547166</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>64.54721561683759</v>
+        <v>53.01366297903077</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>9.216812115630542</v>
+        <v>2.573198457897256</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>40.45682826586224</v>
+        <v>18.18569794639485</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.43171466818274</v>
+        <v>29.97683582257678</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>59.72594107713664</v>
+        <v>64.21173502963211</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.81668726081014</v>
+        <v>54.99449233815162</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.69833540738014</v>
+        <v>68.47518364491074</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.43520357023355</v>
+        <v>73.91334691916276</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.08119583331083</v>
+        <v>20.13030497065445</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.38400135873936</v>
+        <v>63.30309094858361</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.54815333822958</v>
+        <v>65.00692702181786</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.65378484309183</v>
+        <v>24.78921574889723</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.78428517562534</v>
+        <v>41.51971398676726</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.26760832195107</v>
+        <v>46.93439890899932</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.90042726358431</v>
+        <v>9.282487225445262</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.55150337653799</v>
+        <v>40.29503709011755</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>50.58626752774672</v>
+        <v>47.83356910756158</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.98751143323572</v>
+        <v>9.753536534683846</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>55.81134163680818</v>
+        <v>63.91839696883854</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>71.36286013268688</v>
+        <v>72.71998940359356</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.43611588825307</v>
+        <v>77.43755870489511</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.85154384692608</v>
+        <v>86.42048994617895</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>87.06556408462444</v>
+        <v>89.946195505788</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.9844758275297</v>
+        <v>26.78760186154976</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>64.74268974466108</v>
+        <v>76.97877327121957</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.53555018168099</v>
+        <v>79.68859370505004</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>60.56077383927243</v>
+        <v>67.97488656955198</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>45.0963168124659</v>
+        <v>42.57773288392371</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>54.79337811516601</v>
+        <v>53.07131762804922</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>65.27541315660015</v>
+        <v>70.42813320120507</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.15749165315901</v>
+        <v>12.66863815669116</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50.94383004150544</v>
+        <v>56.85082861110639</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>20.28754218533789</v>
+        <v>14.84727929959304</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>40.26853616339096</v>
+        <v>36.85965746441958</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>49.02105931220398</v>
+        <v>46.51918092709883</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>14.83086608747519</v>
+        <v>5.970481934318336</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.4911418526783</v>
+        <v>36.95838220649247</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>52.98278925445879</v>
+        <v>48.77041756495079</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.23370865070762</v>
+        <v>5.207822806789434</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>57.8923921890628</v>
+        <v>59.75750847148404</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>73.99481578815079</v>
+        <v>78.2233120236935</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>66.21936146477391</v>
+        <v>68.29918373901305</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>77.36447517390739</v>
+        <v>78.27552687731432</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>89.19901261565693</v>
+        <v>92.52959672304814</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.95151533624855</v>
+        <v>14.62747177316148</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>66.39675371769184</v>
+        <v>67.00226862544358</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>77.59813967485734</v>
+        <v>76.40584362483739</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>46.90748204519488</v>
+        <v>61.58611601538536</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.40483509084261</v>
+        <v>27.31242283345483</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.72818359365478</v>
+        <v>35.6792078971849</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>52.77088006976692</v>
+        <v>51.8487242614187</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>7.985301337172798</v>
+        <v>10.21979849075274</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.55515934500117</v>
+        <v>47.92175258505156</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>47.24327891019059</v>
+        <v>57.75642859534025</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>9.397004915176442</v>
+        <v>12.21850019778402</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.72726086847388</v>
+        <v>34.1076698784283</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.6795014615502</v>
+        <v>49.15455760695698</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.7721126934612101</v>
+        <v>7.535091608613733</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.86937619174621</v>
+        <v>36.74190556337071</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.19955924439594</v>
+        <v>52.02566130030844</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.1755616414283665</v>
+        <v>2.680091209849511</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.54373684648732</v>
+        <v>52.88378384414854</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>56.700720664635</v>
+        <v>76.36957150120884</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.83489228798683</v>
+        <v>56.37262738272374</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>60.93290393259255</v>
+        <v>69.67977069483547</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>72.4546956721376</v>
+        <v>91.32347081577714</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>12.89443019104173</v>
+        <v>12.63169380285566</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.84473610842603</v>
+        <v>63.45241976852271</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.27579054883263</v>
+        <v>79.18366389999231</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>16.676638485647</v>
+        <v>14.79272257302969</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>31.2392315165604</v>
+        <v>29.33168012674169</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.09725912724265</v>
+        <v>41.19311976250889</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>9.090768006467897</v>
+        <v>2.970408931015498</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.38320492400676</v>
+        <v>34.66903539296447</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>38.1939676082483</v>
+        <v>40.84118835134535</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>15.70036559335495</v>
+        <v>6.616475161507246</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>52.034707287073</v>
+        <v>65.60400813971907</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>53.55148109795971</v>
+        <v>68.67943437309903</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>44.19502968002114</v>
+        <v>33.05962089221476</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>50.37572967482778</v>
+        <v>41.04414995672569</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>52.7826312292413</v>
+        <v>44.23935143256168</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.25585747178855</v>
+        <v>15.95230211727572</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.54284799143277</v>
+        <v>26.17654989460511</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>46.23022043135934</v>
+        <v>49.89138128274135</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.95983736842824</v>
+        <v>17.2402384000045</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.66018002625955</v>
+        <v>32.63376514565772</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.91016025330751</v>
+        <v>37.74380784633592</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2.935840677581123</v>
+        <v>0.1767879136843504</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.95410114239928</v>
+        <v>18.91726156444145</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.03852052142619</v>
+        <v>19.60450491038976</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>5.891025010416454</v>
+        <v>0.1363601566699622</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.87622540882158</v>
+        <v>36.02687972281309</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>21.02612390930721</v>
+        <v>29.3464128370432</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.81202758940269</v>
+        <v>49.72289292831152</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.84582350691728</v>
+        <v>49.87150514774631</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>14.57489057454612</v>
+        <v>7.728944253598151</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>43.58658688552602</v>
+        <v>53.01400108861016</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>46.89701050029386</v>
+        <v>52.76173148304607</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.55280535480441</v>
+        <v>10.30511667342302</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>61.39300341466195</v>
+        <v>78.51331008230912</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>62.36401692228651</v>
+        <v>75.37189815179627</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>56.75794788462593</v>
+        <v>65.37716485968632</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>62.5963149625486</v>
+        <v>75.32913176901208</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>64.96255703832682</v>
+        <v>72.87315171209913</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.22844284098201</v>
+        <v>26.21003620613082</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.13212042162086</v>
+        <v>54.77945757355128</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>57.61983015511896</v>
+        <v>65.1656364646513</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>20.95394321312006</v>
+        <v>25.82421958532264</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.07356531354654</v>
+        <v>46.2504609757777</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>46.07621978617054</v>
+        <v>45.85234670126715</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>12.61899676421748</v>
+        <v>4.594404533726269</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.7534992785198</v>
+        <v>40.21155350653824</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.04210816573711</v>
+        <v>42.7450954132967</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.50108145851127</v>
+        <v>6.994061285599983</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.50679676283731</v>
+        <v>66.06558983239501</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.37618831964109</v>
+        <v>8.967086988002521</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.76136617212515</v>
+        <v>35.8377905463567</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>39.9889345672052</v>
+        <v>38.9008639679212</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.06089366940551</v>
+        <v>5.032316618942257</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>43.68258148673179</v>
+        <v>50.56838943399072</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.24026945028286</v>
+        <v>50.0951983824223</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.0024350812479</v>
+        <v>8.322845239614818</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>61.28660167465615</v>
+        <v>75.68284750894379</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>62.73667821438457</v>
+        <v>74.87709588672732</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.11035993386264</v>
+        <v>75.23206166517663</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>62.78070638785252</v>
+        <v>84.41917917249751</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>65.48421811944625</v>
+        <v>80.5804030996908</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.56312185192752</v>
+        <v>7.294420797185442</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>48.6469856983208</v>
+        <v>40.78502424735629</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>57.33169154829679</v>
+        <v>51.68508881418686</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.31571474653615</v>
+        <v>16.16428669503282</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.98584163486852</v>
+        <v>40.76840156094623</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>45.37206157225518</v>
+        <v>41.5492067308498</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>11.95138074908203</v>
+        <v>3.064254022707054</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.60798998680031</v>
+        <v>35.04605015661281</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>46.52433155029637</v>
+        <v>42.44424194153544</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.78919833637792</v>
+        <v>4.813242129498342</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>57.20414541783754</v>
+        <v>58.95968530323103</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>14.06441207477882</v>
+        <v>6.797704475225981</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.357262205586</v>
+        <v>29.891881620536</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.75759031676385</v>
+        <v>40.29944652270383</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>6.649769818104296</v>
+        <v>6.490476200331265</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.68790415146985</v>
+        <v>48.64855368619951</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.20763685940336</v>
+        <v>56.91190879702157</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>13.38734313866305</v>
+        <v>6.822421494193115</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>52.42968547134504</v>
+        <v>76.30905461223274</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>53.6901121208241</v>
+        <v>79.05476566227041</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.02318751042839</v>
+        <v>68.96181034281156</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.00830002043705</v>
+        <v>78.39203145403268</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>55.54719408115315</v>
+        <v>80.47867093519814</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16.3299547796731</v>
+        <v>6.16741065599366</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.89732995154719</v>
+        <v>37.37251783617156</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>47.97380956829925</v>
+        <v>56.87288590323482</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.44309624187518</v>
+        <v>13.6524107263837</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.0096271080104</v>
+        <v>35.86638356577927</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.22773373239481</v>
+        <v>42.53759341647482</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2.789854979935022</v>
+        <v>4.078155336516492</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.65279091866372</v>
+        <v>33.71481300838359</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.05060835842545</v>
+        <v>44.39378870527705</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.088556430837528</v>
+        <v>4.551901245600636</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>46.06227079652297</v>
+        <v>54.02563416202857</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>51.16528317051759</v>
+        <v>39.78219214573619</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.11818204182752</v>
+        <v>32.63376497661683</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>50.53916137860895</v>
+        <v>47.7214651679988</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>55.6751421468007</v>
+        <v>51.77297108560144</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>12.04658894711269</v>
+        <v>12.31677715709649</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>43.44179385683159</v>
+        <v>32.05084638853443</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>50.31598737270399</v>
+        <v>41.65615725494922</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>11.59248468094841</v>
+        <v>15.17885517008591</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.31705534964686</v>
+        <v>31.24130107562686</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.50574628574213</v>
+        <v>40.11142682641439</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-1.794430650333421</v>
+        <v>-0.8341663270492745</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.88809233332644</v>
+        <v>18.54910180836939</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.47378704990173</v>
+        <v>25.21876696262053</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2.431591506278899</v>
+        <v>2.146154873699221</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>45.5298558850934</v>
+        <v>41.45193567304855</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>57.75561002608779</v>
+        <v>59.0426748649344</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>50.15314496298785</v>
+        <v>39.20108998639525</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>63.52370000524942</v>
+        <v>57.07256909545684</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>70.46170986565521</v>
+        <v>63.27366705640579</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.01116990525012</v>
+        <v>10.31915955743054</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>51.57046620946153</v>
+        <v>34.52681274623244</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>59.19348173696572</v>
+        <v>48.37620512119061</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>66.20426086896167</v>
+        <v>70.34559852510421</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>55.82271946633136</v>
+        <v>63.98947786593537</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>66.55916717685591</v>
+        <v>75.20057383535794</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>71.88933252815873</v>
+        <v>75.60386994902841</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.07342396926473</v>
+        <v>24.91531776096564</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>60.92669902215791</v>
+        <v>71.91766220487648</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>67.13300684821105</v>
+        <v>72.05629408141735</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.87089389934193</v>
+        <v>27.15187150046287</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>45.53003582353242</v>
+        <v>49.15878763923265</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>51.89282036238021</v>
+        <v>49.19847113883423</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.01294259379953</v>
+        <v>4.317593116997486</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.47419706325398</v>
+        <v>46.25132817223249</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>51.50509598279456</v>
+        <v>48.46283948571446</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.17283648623274</v>
+        <v>7.767600918283485</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>64.19613587255785</v>
+        <v>76.76628314793062</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>75.66506097281382</v>
+        <v>80.02608161646884</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.24794532457962</v>
+        <v>83.60593126704566</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>83.34075163182875</v>
+        <v>91.44560143795263</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>90.24514781035292</v>
+        <v>90.16613068476958</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.49463158940101</v>
+        <v>27.96839111751246</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.1349027800693</v>
+        <v>84.27578522950336</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>79.58132120697877</v>
+        <v>83.95765152649693</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.68459733524958</v>
+        <v>71.11921912133901</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.04750646668921</v>
+        <v>59.37807764101106</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>65.6321239315165</v>
+        <v>69.76118238630225</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>71.59939108861705</v>
+        <v>75.64239278962043</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.17383329029569</v>
+        <v>14.15245439650482</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.31942037917558</v>
+        <v>66.92857274799579</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>66.99638976437178</v>
+        <v>69.0281194815617</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.34461246288113</v>
+        <v>14.77142961381199</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.73699422286901</v>
+        <v>41.89919291567153</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>52.32916131330431</v>
+        <v>44.99135198688581</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.74024125920649</v>
+        <v>1.044429478655779</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.09919880659019</v>
+        <v>43.85676814339985</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>53.47741396851633</v>
+        <v>47.69826905143346</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>17.09663973110509</v>
+        <v>2.577103553393648</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>65.79231758035687</v>
+        <v>71.67704483954907</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>77.74569028487886</v>
+        <v>80.74820809740294</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>72.72985255502431</v>
+        <v>81.8578562599393</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>84.58286061298948</v>
+        <v>90.59848093892876</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>91.99323080683138</v>
+        <v>95.01824525639421</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.25578677265458</v>
+        <v>12.49047577478495</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>74.42104919746299</v>
+        <v>77.71548663256945</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>81.18346076823359</v>
+        <v>80.43937953751887</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>54.86153934150362</v>
+        <v>69.29799468042251</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.88971798571643</v>
+        <v>43.6406469390772</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>55.04415353297728</v>
+        <v>55.6100832491324</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>60.64807625178314</v>
+        <v>62.50903340842735</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.24750474431143</v>
+        <v>12.68534151248655</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.61007655156946</v>
+        <v>60.02854032131818</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>55.2592783074445</v>
+        <v>68.73914844847599</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>11.85534592324193</v>
+        <v>11.23229230855145</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.85281315550601</v>
+        <v>39.08762021314439</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>41.61790084716038</v>
+        <v>48.1498716872667</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-0.7073464911096039</v>
+        <v>1.649293105372845</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.42651518146564</v>
+        <v>42.36786178843046</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.75051409231301</v>
+        <v>51.05864279763506</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.937833856044188</v>
+        <v>0.7012089421984342</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>50.7367538224271</v>
+        <v>66.70207596368309</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>62.74916665024134</v>
+        <v>82.13462419928848</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.42816428918671</v>
+        <v>72.12328596001058</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>70.15504264111338</v>
+        <v>83.76233860695424</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>77.33481780495971</v>
+        <v>94.4729475319742</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>16.91763896998518</v>
+        <v>10.11022183248392</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.0155891124666</v>
+        <v>74.38227704447976</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>66.01795613193332</v>
+        <v>84.71553551843684</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>6.701670393068024</v>
+        <v>15.15128407821237</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.70358937297681</v>
+        <v>13.29145015430734</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.02639893342982</v>
+        <v>23.3724128357088</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-0.4681337600173663</v>
+        <v>3.109735657356154</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18.69345696979967</v>
+        <v>15.21581598128224</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.80318678611107</v>
+        <v>18.16369477654485</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>2.914890336480223</v>
+        <v>7.455080566990461</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.86994586943078</v>
+        <v>29.88821439601222</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.25434642372156</v>
+        <v>30.76804557260321</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.41507860326816</v>
+        <v>13.37577011930412</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.01398772087759</v>
+        <v>17.53850752643767</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.79239453529688</v>
+        <v>20.3398887521608</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>9.456921577579012</v>
+        <v>23.11800498871609</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.46866741150706</v>
+        <v>19.05434872336841</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.52205069656891</v>
+        <v>34.26556621551272</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>5.19717884414324</v>
+        <v>12.26922418253269</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.11465992738921</v>
+        <v>20.05120489712788</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.9974200360387</v>
+        <v>30.87943881055731</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.319518155226067</v>
+        <v>2.964904339908514</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>13.31294515902499</v>
+        <v>8.725628060399593</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.89015880297038</v>
+        <v>11.65112137394337</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-3.652748131684618</v>
+        <v>-0.9004705518999572</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.30208615375922</v>
+        <v>13.26496666632374</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11.74970899294948</v>
+        <v>20.57455549859728</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.03618383294106</v>
+        <v>24.55232096909644</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.49287053697343</v>
+        <v>25.57884353360082</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>5.997760120268714</v>
+        <v>1.238191352620561</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.07488029868717</v>
+        <v>27.21426380236785</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.72680313756322</v>
+        <v>27.01753066242454</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.836832767060592</v>
+        <v>5.556717871358252</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.44165868285491</v>
+        <v>38.20934181653077</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.34459360604712</v>
+        <v>36.67170385259602</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.40291420946683</v>
+        <v>40.02690217972013</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.52663511674703</v>
+        <v>44.65600337511939</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>48.4124708807803</v>
+        <v>45.93222406453221</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>18.63037056933259</v>
+        <v>29.74018331207865</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.50629558132778</v>
+        <v>45.71413251542048</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.30371395809223</v>
+        <v>51.42815342056952</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.28948284477204</v>
+        <v>16.14100574138424</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.75822612184801</v>
+        <v>30.06255623003366</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>37.41180561446982</v>
+        <v>37.40591331167972</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>9.900774087476917</v>
+        <v>5.099988228779107</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.90138000237896</v>
+        <v>29.19791366027049</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.84224011999893</v>
+        <v>39.07971301308311</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>8.635034172053585</v>
+        <v>5.182483311424519</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.81942642336497</v>
+        <v>46.32550218195386</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.14330267780664</v>
+        <v>6.568965817284909</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.1345463264011</v>
+        <v>17.76860725165145</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.79713856221962</v>
+        <v>21.85457630093644</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.566661814723899</v>
+        <v>0.8540229853078998</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.32118427147924</v>
+        <v>27.07669969036955</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.27840270194932</v>
+        <v>28.36808338936832</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9.411370208264167</v>
+        <v>6.519227007566208</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.58836734698224</v>
+        <v>39.86775895242603</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>44.05121306414059</v>
+        <v>42.77057346968861</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>40.87230354844345</v>
+        <v>44.75669889420504</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.77887510189588</v>
+        <v>46.70561701288244</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>49.10216152053965</v>
+        <v>51.47379564801795</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.94737763001453</v>
+        <v>16.61374392436348</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.15678698261733</v>
+        <v>34.19745003527559</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>46.24256647470629</v>
+        <v>41.4853625359137</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.53903423895584</v>
+        <v>8.730368303229014</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.65073667623377</v>
+        <v>26.25935481790538</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.74103927391505</v>
+        <v>35.48596401621497</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>9.196948536901241</v>
+        <v>2.081356860039818</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.7688250925606</v>
+        <v>19.79635044518817</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>40.45281249556857</v>
+        <v>38.5383210394343</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>7.916288222658546</v>
+        <v>1.907889587555637</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.62649384862664</v>
+        <v>35.88642939286178</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3.896004885854017</v>
+        <v>4.687210270812812</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.59471775003568</v>
+        <v>11.5428157962189</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>18.43573082714107</v>
+        <v>21.15567323178822</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-2.968051925713013</v>
+        <v>0.3649762131681911</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>18.96603392208907</v>
+        <v>22.63696052591617</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.81569802012492</v>
+        <v>30.82498975637012</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.5307058148680355</v>
+        <v>1.843553649949051</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.15844712359727</v>
+        <v>36.15785670484733</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.35840023562825</v>
+        <v>41.03172185236409</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.32669090952128</v>
+        <v>35.82054435144096</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.60099147320866</v>
+        <v>38.48210023019914</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.66088962264027</v>
+        <v>43.10657930782989</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>8.653163195759321</v>
+        <v>14.14020835763047</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.98549617948033</v>
+        <v>27.25001420061137</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.45611820096993</v>
+        <v>41.99952429382029</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.695748907586839</v>
+        <v>6.894429689512073</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.49836308394651</v>
+        <v>21.53717886577359</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.41106195513626</v>
+        <v>34.97212419486582</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-1.162502158210568</v>
+        <v>3.163224216052086</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.33865509362191</v>
+        <v>18.81576264456365</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.40189053030632</v>
+        <v>38.21036491381264</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-3.177396384154612</v>
+        <v>0.8372012636457455</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.75158736691626</v>
+        <v>30.02291370603226</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>37.59850547493812</v>
+        <v>21.88532293438121</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.07777091996961</v>
+        <v>17.96853787298026</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.24439638556658</v>
+        <v>34.57432314315496</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.31284543500892</v>
+        <v>40.76188803664209</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>3.030127384264659</v>
+        <v>2.637356448060693</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.12958728283394</v>
+        <v>11.35473690110804</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>37.27801584206621</v>
+        <v>21.15123660625801</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>6.985012585696099</v>
+        <v>11.00542239921388</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.81970746241534</v>
+        <v>19.17811278276515</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.0129064343196</v>
+        <v>29.30062466638185</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-3.44117406308494</v>
+        <v>-0.2092409324738433</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.38675856740596</v>
+        <v>5.784414523078599</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.96678117193918</v>
+        <v>12.49635217615976</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-3.813076603820051</v>
+        <v>-0.0712349800906118</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.659004933669</v>
+        <v>16.98070618168628</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>47.42142833047154</v>
+        <v>31.77980932082305</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.25069180417618</v>
+        <v>19.39787339939405</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>50.47643664333901</v>
+        <v>39.66143971927311</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>61.24425370574448</v>
+        <v>47.19671494936531</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>8.013578390395322</v>
+        <v>3.360190008609276</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.20897790925052</v>
+        <v>15.45408298823926</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>50.23474357895046</v>
+        <v>26.24925931895468</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>54.71151860684637</v>
+        <v>59.83697275009172</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.62912083882421</v>
+        <v>49.19540368800534</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>51.01831375136665</v>
+        <v>62.7994125570051</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>60.46939297825247</v>
+        <v>68.64227682679612</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.68482635989823</v>
+        <v>16.72586168534992</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.59574963713715</v>
+        <v>58.07223258524986</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>56.11157502576738</v>
+        <v>61.97668552410136</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>19.02253256419375</v>
+        <v>24.26933296736162</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.97943933210587</v>
+        <v>39.49389493768976</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>46.29920192741781</v>
+        <v>44.88397734998639</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.59732490827923</v>
+        <v>7.474796089274271</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.5021326549714</v>
+        <v>36.92741258164364</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.63781551740087</v>
+        <v>45.00775248561898</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>12.373841247494</v>
+        <v>11.07008689157638</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.08389297641173</v>
+        <v>61.37048520483858</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>68.16020377556768</v>
+        <v>69.15626221503396</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.15059585252048</v>
+        <v>74.63563109664173</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>72.95834256716181</v>
+        <v>82.38114241251387</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>83.85063847659248</v>
+        <v>86.51734677012556</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.88693035867902</v>
+        <v>29.57032841814722</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>62.55067526434864</v>
+        <v>76.11411996202675</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>73.40769930297346</v>
+        <v>79.4460174524998</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>55.41624046658477</v>
+        <v>62.11539220960237</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>40.77184517790138</v>
+        <v>35.95380130815276</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>49.98351233263921</v>
+        <v>46.46275504963048</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>60.18344037792102</v>
+        <v>64.56303631997149</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.64816560718845</v>
+        <v>7.926683166578506</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>46.00944734525569</v>
+        <v>48.96479096807806</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>56.11416947978402</v>
+        <v>57.90960358790282</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>18.52924459282189</v>
+        <v>13.91449302371816</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.32029041633494</v>
+        <v>33.76741060975424</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>46.92598723343158</v>
+        <v>43.92948649198075</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>12.40714836599143</v>
+        <v>3.282734764875904</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.30359224928279</v>
+        <v>32.03740588110778</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>49.91239463689762</v>
+        <v>45.24112947197607</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>13.46320888839884</v>
+        <v>5.058188003732994</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.98253514456198</v>
+        <v>54.64930456538519</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>70.64248643091729</v>
+        <v>73.45237826111854</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.78037347714157</v>
+        <v>64.15064504830295</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>74.33044352498005</v>
+        <v>72.76497808985653</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>85.84839717012767</v>
+        <v>88.65756131108563</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.71909039671482</v>
+        <v>15.58623547224681</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>64.04791513340383</v>
+        <v>63.70124446352222</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>75.32526685834779</v>
+        <v>74.62862237340165</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>41.7868778737415</v>
+        <v>55.81028186362991</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.12807738391351</v>
+        <v>21.73211093346153</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.94581988032411</v>
+        <v>28.83829002196723</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>47.70390753614015</v>
+        <v>45.42615725321996</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>4.510169710982019</v>
+        <v>5.426256205495207</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.67782204224624</v>
+        <v>38.82557683508174</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>42.71310235957475</v>
+        <v>51.00769174672314</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>7.697860400681485</v>
+        <v>11.16624249701906</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.85521325286142</v>
+        <v>31.34720257071662</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.6320297307343</v>
+        <v>45.74712797977099</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1.628278071339242</v>
+        <v>3.97912384404394</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.73158994133778</v>
+        <v>30.72979397628917</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.16217924836775</v>
+        <v>46.67761783095047</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-1.528219014271667</v>
+        <v>2.183643236558115</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.72217850760173</v>
+        <v>47.71611580721917</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>53.39362856699225</v>
+        <v>70.35654561982099</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>46.45598684264709</v>
+        <v>51.47008274343859</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>57.92954992007381</v>
+        <v>62.24525893106574</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>69.129637568991</v>
+        <v>84.58965597698543</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.71441101524219</v>
+        <v>11.7754845157455</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.56587280509612</v>
+        <v>58.45119059534966</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>58.06417823980958</v>
+        <v>74.20647411506107</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>5.739022358477136</v>
+        <v>14.92270230261868</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>14.22510400021841</v>
+        <v>13.27048584927365</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.97710959218977</v>
+        <v>21.8497267620535</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.9248950764418815</v>
+        <v>3.906022929956549</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.3701885075906</v>
+        <v>12.92523927670261</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.89425739591745</v>
+        <v>15.61088638064111</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>2.323509102291311</v>
+        <v>7.77337158740222</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.82940709663546</v>
+        <v>26.50709542325887</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.72865490943583</v>
+        <v>27.1426041648561</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.0132831542504</v>
+        <v>12.29791431003806</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.24876433122873</v>
+        <v>16.87081167907816</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.65399784744404</v>
+        <v>19.58921161394818</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.071052348052909</v>
+        <v>18.3382280392085</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.6773957540186</v>
+        <v>13.75322385839736</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.48215707770605</v>
+        <v>25.61271174226048</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>6.544374807739294</v>
+        <v>13.38020000515598</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.86764923654178</v>
+        <v>22.21223616146077</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.77289502558819</v>
+        <v>31.90314139930846</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.04060163796383875</v>
+        <v>3.712860752465623</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.00875486117109</v>
+        <v>9.924135039010785</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.23011152030411</v>
+        <v>13.33391124107947</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1.062303188960083</v>
+        <v>1.39241261054077</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.20500397953128</v>
+        <v>16.32676836051504</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.08467909714366</v>
+        <v>19.69105722032693</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.63968951843125</v>
+        <v>23.58876401367857</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.62288850260769</v>
+        <v>23.94644777074687</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.689896757630665</v>
+        <v>2.181931974824579</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.50046616926115</v>
+        <v>24.0766126294614</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.6112510502436</v>
+        <v>23.99942009724803</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>8.306079783304574</v>
+        <v>5.764728003246457</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.10614086175451</v>
+        <v>34.26682657237389</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>38.56411965374399</v>
+        <v>32.61784655756888</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.37674369115048</v>
+        <v>35.4093797985456</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.19696190293588</v>
+        <v>40.7675089169631</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>43.68694226407106</v>
+        <v>41.63143753885793</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>15.10037302317328</v>
+        <v>23.15990269730499</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.09133004888356</v>
+        <v>37.12774337111418</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>39.75740459511618</v>
+        <v>40.66939714273481</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.62151691983543</v>
+        <v>17.25813620465578</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.24677999747576</v>
+        <v>31.97290189646329</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.95702120678861</v>
+        <v>38.4215706779087</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>10.01179956996004</v>
+        <v>6.24013386171552</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.90127104122301</v>
+        <v>29.42293233792581</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.43974004695387</v>
+        <v>38.83180264098901</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>9.84374287833999</v>
+        <v>7.166341243027741</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.92396296164075</v>
+        <v>46.88927077888203</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.549291505803765</v>
+        <v>6.372075781050935</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.71655630947546</v>
+        <v>16.03419325946137</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.89536485839733</v>
+        <v>19.64440438294902</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.211211139151768</v>
+        <v>1.336518503405262</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.61584046303481</v>
+        <v>23.00755528342479</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.00554311014574</v>
+        <v>24.51763440641134</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>7.809523457594505</v>
+        <v>6.064074782057517</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.09738885026905</v>
+        <v>34.113252019667</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.06803457608507</v>
+        <v>37.11870716346168</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.69526855463086</v>
+        <v>39.20347996854157</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>40.32646220360273</v>
+        <v>42.17611639275502</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>44.20666803296268</v>
+        <v>46.09510755470136</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>13.50820113425982</v>
+        <v>10.5760759892472</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.67101000963995</v>
+        <v>25.60705897288614</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.59263722119921</v>
+        <v>31.09642112420734</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.9907233034961</v>
+        <v>9.87870895405522</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.17543033154237</v>
+        <v>27.20655002678823</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.28984964133258</v>
+        <v>36.03556759678411</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.312024628463469</v>
+        <v>3.264106238163457</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.70155611418416</v>
+        <v>20.62102951388214</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.91434583575771</v>
+        <v>38.09802123039816</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.115446213017703</v>
+        <v>3.826094248334002</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>39.63991934745229</v>
+        <v>35.98762186713897</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>3.044515406192581</v>
+        <v>4.745744410402953</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.06461730134757</v>
+        <v>10.45973617610612</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.39034038108582</v>
+        <v>19.15272300341543</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-3.354305649288822</v>
+        <v>0.9030387060874787</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.4276581335683</v>
+        <v>18.87044381559348</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.71579957456116</v>
+        <v>26.76922752638304</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-0.02802971484242178</v>
+        <v>2.301019920901261</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.88559529757069</v>
+        <v>31.17515583985509</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.61190713457984</v>
+        <v>36.07623788530829</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.45034604109546</v>
+        <v>31.463845300643</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.40603309422558</v>
+        <v>34.80037445634902</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.05539174843613</v>
+        <v>39.23987038696797</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.138780806673866</v>
+        <v>9.040783311318865</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.74509457283213</v>
+        <v>20.22765856265622</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.00248952927297</v>
+        <v>31.56850676850886</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>6.027284272232828</v>
+        <v>8.487888545764015</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.05669137244645</v>
+        <v>23.15352000545726</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.99631217448031</v>
+        <v>35.84817270623005</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.08867987583936809</v>
+        <v>4.276662321489582</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.64178516801059</v>
+        <v>19.52682983093487</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.29309095219658</v>
+        <v>37.65150825208755</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-0.7285460384319364</v>
+        <v>3.384756619060511</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.22967668394043</v>
+        <v>31.19781804404116</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.70583118468644</v>
+        <v>24.59728134662772</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.06674284994775</v>
+        <v>20.67958706840466</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.49959868214609</v>
+        <v>36.12989777807343</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.4433093183194</v>
+        <v>42.4242497578343</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4.694450803920203</v>
+        <v>4.334679290699796</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.7841255540192</v>
+        <v>15.3403157091741</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.33889265516513</v>
+        <v>24.40254311646346</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>8.11073855194685</v>
+        <v>11.34738570378805</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.27289940537125</v>
+        <v>20.69559213691357</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.61606690392796</v>
+        <v>30.28509994580219</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2.002895516581404</v>
+        <v>-0.1108478697142701</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>17.71387506012288</v>
+        <v>6.400447260647773</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.19313611778096</v>
+        <v>13.18522726161908</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1.258478779179494</v>
+        <v>1.368847837247682</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.83379528636809</v>
+        <v>19.03661324645195</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>45.71180636854044</v>
+        <v>31.82444727659121</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>37.91475276774134</v>
+        <v>21.81734632429003</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>49.15280901922971</v>
+        <v>40.92357576190298</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>58.6339411057251</v>
+        <v>47.10419405859258</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>9.479640090414073</v>
+        <v>4.751808065306331</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.43187489948716</v>
+        <v>17.98558196573927</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>48.3755537095728</v>
+        <v>27.59081228560375</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>51.95215170269125</v>
+        <v>59.21182209539843</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.64480546826712</v>
+        <v>49.10775210429175</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>49.39449322162803</v>
+        <v>61.90242018329696</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.6572658541381</v>
+        <v>67.26239630289734</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.85424519064287</v>
+        <v>17.01018619270393</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.18808560658037</v>
+        <v>58.18332656229311</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>53.15783555264808</v>
+        <v>61.50677394395557</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.82770457037088</v>
+        <v>24.01306129359392</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.81178528610886</v>
+        <v>40.24623465006636</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.38646853703854</v>
+        <v>45.34463551037349</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>11.41375613138386</v>
+        <v>8.33634771777097</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.70011962008648</v>
+        <v>36.74691796535125</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.77416762823368</v>
+        <v>44.71185256058419</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.16372916372665</v>
+        <v>12.70249197157985</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>50.98370915212668</v>
+        <v>61.02306291117122</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>64.23630868707207</v>
+        <v>67.07982797230611</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.30726478309121</v>
+        <v>72.20550639374724</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>69.28193828155855</v>
+        <v>80.96033267009474</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>78.86194256160422</v>
+        <v>83.40401731335405</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.45106233646679</v>
+        <v>29.56368178770431</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>60.25381343319164</v>
+        <v>75.20247636812944</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>69.12916584040353</v>
+        <v>77.78259188801869</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>52.49421138285636</v>
+        <v>60.69837356448738</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.79272556846718</v>
+        <v>37.03419506198792</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.3900198562403</v>
+        <v>47.55686224644067</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>57.32483775577099</v>
+        <v>63.68096304722685</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.96126364862549</v>
+        <v>8.619475254221527</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.57696879834177</v>
+        <v>49.6321223160586</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>53.07742165050198</v>
+        <v>58.15174753952817</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>18.3264084952544</v>
+        <v>14.14779205919934</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.04454303344197</v>
+        <v>34.18410069759855</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.8861922533536</v>
+        <v>44.05380194140907</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>12.09010064830886</v>
+        <v>4.421862465052847</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.25598313946617</v>
+        <v>32.18905704276025</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>46.75660594999468</v>
+        <v>44.88889165045815</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>14.06876295777364</v>
+        <v>7.025883688630866</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>52.59048232322209</v>
+        <v>54.08609059055078</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>66.38474126343989</v>
+        <v>70.75020117618395</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>60.70260572288302</v>
+        <v>62.84031145395269</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>70.44777447172625</v>
+        <v>72.47088453244953</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>80.58749388096189</v>
+        <v>85.50072811386971</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.23868468983685</v>
+        <v>16.51504601541516</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>61.52510049016077</v>
+        <v>64.24709865339668</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>70.78005469278713</v>
+        <v>74.02338956509891</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.38750457864696</v>
+        <v>55.76335304630451</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.55302954867439</v>
+        <v>24.24801867663026</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.68966024397297</v>
+        <v>32.28352800983622</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.23393189033628</v>
+        <v>46.86750923282546</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>5.943038413497423</v>
+        <v>6.921982110026178</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.72283433271517</v>
+        <v>40.72361223878237</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>41.15662176024287</v>
+        <v>52.21061298512512</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>8.666728951749995</v>
+        <v>12.23621209804933</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.93744266162955</v>
+        <v>32.51644429866602</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.92126191425095</v>
+        <v>46.15560685153864</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>-0.4671679435596836</v>
+        <v>5.274228782086556</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>22.44022934855444</v>
+        <v>31.11118165632331</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.78392345004126</v>
+        <v>46.05892614940042</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>0.696454064028952</v>
+        <v>5.140456404938156</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.20858314742306</v>
+        <v>48.80937694316335</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.00061702683639</v>
+        <v>68.80512037436765</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.2350791862286</v>
+        <v>52.40186919428167</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.8093429586132</v>
+        <v>63.83393848900941</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>65.66793336588957</v>
+        <v>82.35037152385945</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>12.72956316430119</v>
+        <v>13.65151870368416</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.91841318582957</v>
+        <v>59.817387651973</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>55.36518311205049</v>
+        <v>73.38081413954747</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>8.999659575331144</v>
+        <v>12.4939484103532</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.40311513684468</v>
+        <v>18.52728811787596</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.04247538916595</v>
+        <v>30.11441861049403</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.826020825326186</v>
+        <v>-0.9504086710408473</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.23393457549692</v>
+        <v>13.69517988246171</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.39460380219526</v>
+        <v>19.14011405034587</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6.49899872701395</v>
+        <v>2.071712600182977</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.73097933553119</v>
+        <v>38.42610467436732</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.39939844349027</v>
+        <v>41.04904692139256</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.01359233436897</v>
+        <v>21.88239136206438</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.74928366283534</v>
+        <v>25.75301923437666</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.74133943265547</v>
+        <v>28.54444787332043</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.096268284083443</v>
+        <v>9.507641076526696</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.26811193648142</v>
+        <v>19.45641254286901</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.29536137419827</v>
+        <v>33.60924390591513</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>6.322989469010928</v>
+        <v>12.77232640530843</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.90518195158795</v>
+        <v>25.27863581876703</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.59611564653404</v>
+        <v>32.33836964407435</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-1.956406191170277</v>
+        <v>0.5031018278321824</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.37294832796731</v>
+        <v>11.31555287045433</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.19787282099615</v>
+        <v>11.13256203326617</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-1.761258528886646</v>
+        <v>-1.922689417738127</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.66811823547185</v>
+        <v>22.43093632879721</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.09682311331964</v>
+        <v>22.63319747116914</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.88708471522865</v>
+        <v>36.02667763459685</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.64837069179385</v>
+        <v>37.51310347523512</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>8.375781457036144</v>
+        <v>3.802633976025067</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.76933974698406</v>
+        <v>35.42964277594758</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.43132957549142</v>
+        <v>36.28834160312631</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.43516041704747</v>
+        <v>5.806584169700777</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.44211898349781</v>
+        <v>54.18492202539349</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>51.55234325019408</v>
+        <v>52.99017661132896</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.12992861746324</v>
+        <v>53.99375009109652</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.46911419572135</v>
+        <v>59.28336700590355</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.50684761022963</v>
+        <v>59.63445530554166</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>18.25209523913578</v>
+        <v>19.96188940101801</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.48196684182087</v>
+        <v>54.03803464318143</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.18043534639177</v>
+        <v>58.5088497718114</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.33245667697024</v>
+        <v>17.99431190683642</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>33.51669744949806</v>
+        <v>37.19496888112776</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.95202014386827</v>
+        <v>39.77872580423831</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>9.119280623769821</v>
+        <v>4.268937309850987</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.84212171135108</v>
+        <v>34.81050827820041</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>39.93910448047751</v>
+        <v>38.53271133592696</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>10.29918354237563</v>
+        <v>4.632501966572995</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.03041853391038</v>
+        <v>55.69028162471892</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.47304422754053</v>
+        <v>7.228283242838039</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.9161896491376</v>
+        <v>25.59091126389158</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.89636579654421</v>
+        <v>30.8917880183402</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.934078696266106</v>
+        <v>2.488507622844907</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.9690115513332</v>
+        <v>32.62059866755568</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.94212500569533</v>
+        <v>35.8304113120156</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>12.97536890806553</v>
+        <v>6.981632111046427</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.47257342178212</v>
+        <v>52.58954708859694</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.13127467409166</v>
+        <v>56.08494198167984</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.54623719535294</v>
+        <v>58.9598835421658</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.70781546519123</v>
+        <v>61.68093508705951</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>57.16652884234952</v>
+        <v>64.86867866410086</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.58482446363109</v>
+        <v>6.081090084907231</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.07993218835807</v>
+        <v>39.29666955170453</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.032280502495</v>
+        <v>46.08962691957474</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.60016675215261</v>
+        <v>11.25958111458393</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.37328655550326</v>
+        <v>32.77246321625785</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.24784671697988</v>
+        <v>37.81353698356204</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.394420347020544</v>
+        <v>3.238837398485757</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.6482879461631</v>
+        <v>27.64439552963307</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.47964866771871</v>
+        <v>39.16627857766809</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>9.545673497472691</v>
+        <v>4.124149475000642</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.71805889092444</v>
+        <v>46.55557163780703</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.314997744913292</v>
+        <v>4.710750788281402</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.52639573037175</v>
+        <v>18.45134088575887</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.68399773704738</v>
+        <v>30.99034171680341</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.5381217737716462</v>
+        <v>0.3217960962612167</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.6990987540137</v>
+        <v>23.67800528892949</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.59019216326464</v>
+        <v>38.10513048206642</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>4.22598003032871</v>
+        <v>1.097379251535244</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.26287873392907</v>
+        <v>47.14396358044432</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.68893554893267</v>
+        <v>54.64820521887297</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.15401469920437</v>
+        <v>48.98408816727655</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.63195984551086</v>
+        <v>52.94148583867163</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.86049958894187</v>
+        <v>59.16126620129303</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>8.294497847505136</v>
+        <v>3.247311175910255</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.98437254018979</v>
+        <v>31.63630189741341</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.33041602115258</v>
+        <v>47.14906084850308</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>5.874805388719272</v>
+        <v>6.90374314911486</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>23.4043919964436</v>
+        <v>25.10688355905058</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.08773621874521</v>
+        <v>35.59774880672961</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-1.828466374036971</v>
+        <v>0.2564813742941325</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.41988471404588</v>
+        <v>20.3809697867876</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.64470270013574</v>
+        <v>35.66856318479593</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-1.32152948641048</v>
+        <v>-0.8113236648364435</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.18321629522332</v>
+        <v>36.06765682728462</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>41.70341892276256</v>
+        <v>27.22506491492866</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.08706562307965</v>
+        <v>23.24219167303318</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.31894914429856</v>
+        <v>37.46791310097007</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.58899297406647</v>
+        <v>40.21631203272489</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>3.488047009258796</v>
+        <v>3.87096720907013</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.57556419691656</v>
+        <v>15.57035532166631</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>39.53522342177028</v>
+        <v>26.40930616574461</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>6.611862973869759</v>
+        <v>10.48998966690494</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.60332341549305</v>
+        <v>22.14913897712037</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.38101730615365</v>
+        <v>33.26233104657253</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-5.698998902111295</v>
+        <v>-2.457333238576776</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.8122946859125</v>
+        <v>8.915306388728414</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.20396035525442</v>
+        <v>15.11939578581129</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-3.689572881351499</v>
+        <v>-0.9383982396855366</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.92751872024975</v>
+        <v>23.27689854726983</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>50.7886893287193</v>
+        <v>40.9394755372788</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>41.77731907522207</v>
+        <v>26.42070870145347</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>54.31285808801286</v>
+        <v>46.09588473940671</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>64.60179148172972</v>
+        <v>52.70862403551266</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.648937126121647</v>
+        <v>2.604381096345136</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.46739158317247</v>
+        <v>20.91234464961357</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.4251793699907</v>
+        <v>34.4862691431729</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>58.54862824914842</v>
+        <v>63.11876669225004</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>47.59256178869263</v>
+        <v>54.77626812203445</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.10236507945122</v>
+        <v>65.94233765667295</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>64.61905905795878</v>
+        <v>66.71678844059558</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.9718730818626</v>
+        <v>15.42711404944879</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.99708037024507</v>
+        <v>60.8202494280678</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>58.20443893005489</v>
+        <v>64.32931244882238</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.35882152645305</v>
+        <v>21.87773832878964</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.52482382061502</v>
+        <v>41.4393179926394</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>48.42504272847451</v>
+        <v>45.77989462065051</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.035509842319211</v>
+        <v>4.897422093122174</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.66088240074168</v>
+        <v>41.84570208215063</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.51586268355578</v>
+        <v>46.19560997108897</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>12.07895276604332</v>
+        <v>7.802080651793322</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>57.00207106772768</v>
+        <v>65.48258967859971</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>71.08268013533602</v>
+        <v>72.34638115404718</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.36811047951795</v>
+        <v>77.19573868407454</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.51565243470986</v>
+        <v>86.35994501329668</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>86.86712666715144</v>
+        <v>88.81419019161186</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.12945212316712</v>
+        <v>22.11417020974161</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>66.5642889081734</v>
+        <v>79.34700310597518</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>74.23104760582152</v>
+        <v>81.53784707565254</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>59.12829829815087</v>
+        <v>65.96109820249316</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>46.66816745167658</v>
+        <v>46.65156987149227</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>56.02874000276711</v>
+        <v>54.89589795813262</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>64.27871645400646</v>
+        <v>65.89549282001346</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.94198167027278</v>
+        <v>8.440995452666243</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.33230413601649</v>
+        <v>53.68794281629101</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>58.11631425448404</v>
+        <v>61.70254199485941</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.84638937260237</v>
+        <v>12.11871617432127</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.79941436757794</v>
+        <v>34.92668164251469</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>48.98294356141143</v>
+        <v>44.28219188945462</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>9.840908925977743</v>
+        <v>1.826408268519437</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.3984850428478</v>
+        <v>37.42943638724328</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>49.71030619671606</v>
+        <v>46.42659350179015</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.12136257574502</v>
+        <v>4.06649140272139</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.76402720811943</v>
+        <v>59.27554861530901</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>73.427828115133</v>
+        <v>76.34552814605885</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.90623243028502</v>
+        <v>69.72311523949006</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.82216410623197</v>
+        <v>79.11295643773968</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>88.77939350807816</v>
+        <v>92.81019741238532</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>23.92811835202318</v>
+        <v>10.36684862056021</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.96369296532957</v>
+        <v>69.05408956587402</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.04351513477842</v>
+        <v>77.8159922971283</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>45.83562834946358</v>
+        <v>57.24566532666209</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.2544375607124</v>
+        <v>27.02593232203897</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.18116220470655</v>
+        <v>35.07244464913663</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>52.01904026385003</v>
+        <v>45.61803213187611</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>4.927631873933883</v>
+        <v>3.386852932874788</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>37.21044364204194</v>
+        <v>38.15013513092124</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>44.9318570350719</v>
+        <v>54.05196722826514</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.19800148781877</v>
+        <v>7.916442454120123</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.58893724025093</v>
+        <v>30.60278602206853</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>36.93936766969365</v>
+        <v>45.5940824633728</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-4.04407541237844</v>
+        <v>-0.3325100422269642</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>23.04651036635045</v>
+        <v>31.44287844033305</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.22672573755963</v>
+        <v>45.91557958629946</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1.60487309003701</v>
+        <v>-0.9624711717361976</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.88036845766446</v>
+        <v>49.78483944205622</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>56.56958043527192</v>
+        <v>72.7103525498448</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>49.86973982902111</v>
+        <v>55.67386882045821</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>61.68725715059558</v>
+        <v>68.10579320315202</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>72.35447122697144</v>
+        <v>87.59682865155906</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>10.11014852458002</v>
+        <v>5.618237398259417</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.75677053293298</v>
+        <v>60.28870638220139</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>59.05802117870107</v>
+        <v>77.96342533919305</v>
       </c>
     </row>
   </sheetData>
